--- a/Extraction/Extracted_data/processed/RQ1_0.0.1.xlsx
+++ b/Extraction/Extracted_data/processed/RQ1_0.0.1.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trannguyen/Documents/CodeProjects/BC-IoT_SLR/BC_IoT_SLR/Extraction/Extracted_data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C083AAC5-89A6-DB4D-97A7-2540CC3DFD18}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120FF462-1CE8-DF40-AEFB-5C0F0909242D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RQ1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="340">
   <si>
     <t>Paper ID</t>
   </si>
@@ -355,9 +355,6 @@
     <t>Proceedings of the 9th IFIP International Conference on New Technologies, Mobility and Security, NTMS 2018</t>
   </si>
   <si>
-    <t>Enable verifiable and enforceable automatic processes</t>
-  </si>
-  <si>
     <t>Fan:2018:1</t>
   </si>
   <si>
@@ -1012,13 +1009,49 @@
     <t>Technical Problem</t>
   </si>
   <si>
-    <t>Technical Problem Categority</t>
-  </si>
-  <si>
     <t>Improve Quality</t>
   </si>
   <si>
     <t>Improve Quality; New Functionality</t>
+  </si>
+  <si>
+    <t>Decentralise the operation of IoT systems</t>
+  </si>
+  <si>
+    <t>Enable decentralised authentication, authorisation, and trust management</t>
+  </si>
+  <si>
+    <t>Control and incentivise the distribution of IoT data and services</t>
+  </si>
+  <si>
+    <t>Build trusted communication channels</t>
+  </si>
+  <si>
+    <t>Decentralise the operation of IoT systems;Enable decentralised authentication, authorisation, and trust management</t>
+  </si>
+  <si>
+    <t>Ensure the integrity of IoT systems and their data</t>
+  </si>
+  <si>
+    <t>Decentralise the operation of IoT systems;Ensure the integrity of IoT systems and their data</t>
+  </si>
+  <si>
+    <t>Enable decentralised authentication, authorisation, and trust management;Ensure the integrity of IoT systems and their data</t>
+  </si>
+  <si>
+    <t>Decentralise the operation of IoT systems;Ensure the integrity of IoT systems and their data;Build trusted communication channels</t>
+  </si>
+  <si>
+    <t>Decentralise the operation of IoT systems;Control and incentivise the distribution of IoT data and services</t>
+  </si>
+  <si>
+    <t>Decentralise the operation of IoT systems;Enable decentralised authentication, authorisation, and trust management;Ensure the integrity of IoT systems and their data</t>
+  </si>
+  <si>
+    <t>Decentralise the operation of IoT systems;Ensure the integrity of IoT systems and their data;Control and incentivise the distribution of IoT data and services</t>
+  </si>
+  <si>
+    <t>Technical Problem Category</t>
   </si>
 </sst>
 </file>
@@ -1487,11 +1520,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:O91"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G5" sqref="G5"/>
+      <pane xSplit="5" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1501,12 +1534,11 @@
     <col min="3" max="3" width="8.5" style="6"/>
     <col min="4" max="4" width="17.83203125" style="7"/>
     <col min="5" max="5" width="10.33203125" style="6"/>
-    <col min="6" max="8" width="26.5" style="5" customWidth="1"/>
-    <col min="9" max="9" width="26.5" style="7" customWidth="1"/>
-    <col min="10" max="1018" width="8.5"/>
+    <col min="6" max="15" width="26.5" style="5" customWidth="1"/>
+    <col min="16" max="1024" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1523,19 +1555,25 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
@@ -1552,17 +1590,43 @@
         <v>8</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+      <c r="I2" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H2)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J2" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H2)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K2" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H2)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L2" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H2)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M2" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H2)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N2" s="5" t="str">
+        <f>_xlfn.TEXTJOIN(";",TRUE,I2:M2)</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -1582,14 +1646,40 @@
         <v>13</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+      <c r="I3" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H3)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v/>
+      </c>
+      <c r="J3" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H3)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v>Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="K3" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H3)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L3" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H3)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M3" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H3)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N3" s="5" t="str">
+        <f t="shared" ref="N3:N66" si="0">_xlfn.TEXTJOIN(";",TRUE,I3:M3)</f>
+        <v>Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
@@ -1609,14 +1699,40 @@
         <v>17</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+      <c r="I4" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H4)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v/>
+      </c>
+      <c r="J4" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H4)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K4" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H4)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L4" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H4)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v>Control and incentivise the distribution of IoT data and services</v>
+      </c>
+      <c r="M4" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H4)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Control and incentivise the distribution of IoT data and services</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
@@ -1633,17 +1749,43 @@
         <v>8</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+      <c r="I5" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H5)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v/>
+      </c>
+      <c r="J5" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H5)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K5" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H5)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L5" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H5)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M5" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H5)))&gt;0, "Build trusted communication channels","")</f>
+        <v>Build trusted communication channels</v>
+      </c>
+      <c r="N5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Build trusted communication channels</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
@@ -1660,17 +1802,43 @@
         <v>8</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+      <c r="I6" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H6)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J6" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H6)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K6" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H6)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L6" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H6)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M6" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H6)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
@@ -1690,14 +1858,40 @@
         <v>26</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+      <c r="I7" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H7)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v/>
+      </c>
+      <c r="J7" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H7)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K7" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H7)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L7" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H7)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v>Control and incentivise the distribution of IoT data and services</v>
+      </c>
+      <c r="M7" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H7)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Control and incentivise the distribution of IoT data and services</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1714,17 +1908,43 @@
         <v>8</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+      <c r="I8" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H8)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J8" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H8)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K8" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H8)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L8" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H8)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M8" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H8)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>30</v>
       </c>
@@ -1744,14 +1964,40 @@
         <v>33</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+      <c r="I9" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H9)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J9" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H9)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v>Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="K9" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H9)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L9" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H9)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M9" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H9)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems;Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>34</v>
       </c>
@@ -1771,14 +2017,40 @@
         <v>37</v>
       </c>
       <c r="G10" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="I10" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H10)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J10" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H10)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K10" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H10)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L10" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H10)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M10" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H10)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O10" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>38</v>
       </c>
@@ -1798,14 +2070,40 @@
         <v>26</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+      <c r="I11" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H11)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v/>
+      </c>
+      <c r="J11" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H11)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K11" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H11)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L11" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H11)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v>Control and incentivise the distribution of IoT data and services</v>
+      </c>
+      <c r="M11" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H11)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Control and incentivise the distribution of IoT data and services</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>41</v>
       </c>
@@ -1825,14 +2123,40 @@
         <v>44</v>
       </c>
       <c r="G12" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="I12" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H12)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J12" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H12)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K12" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H12)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L12" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H12)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M12" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H12)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O12" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>45</v>
       </c>
@@ -1852,14 +2176,40 @@
         <v>48</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+      <c r="I13" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H13)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v/>
+      </c>
+      <c r="J13" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H13)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K13" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H13)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L13" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H13)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M13" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H13)))&gt;0, "Build trusted communication channels","")</f>
+        <v>Build trusted communication channels</v>
+      </c>
+      <c r="N13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Build trusted communication channels</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>49</v>
       </c>
@@ -1879,14 +2229,40 @@
         <v>52</v>
       </c>
       <c r="G14" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="I14" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H14)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J14" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H14)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K14" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H14)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L14" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H14)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M14" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H14)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O14" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>53</v>
       </c>
@@ -1903,17 +2279,43 @@
         <v>8</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="I15" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H15)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J15" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H15)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K15" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H15)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L15" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H15)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M15" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H15)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>56</v>
       </c>
@@ -1930,17 +2332,43 @@
         <v>8</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+      <c r="I16" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H16)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J16" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H16)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K16" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H16)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L16" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H16)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M16" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H16)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>58</v>
       </c>
@@ -1957,17 +2385,43 @@
         <v>25</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G17" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="I17" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H17)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J17" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H17)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K17" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H17)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L17" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H17)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M17" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H17)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O17" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>61</v>
       </c>
@@ -1987,14 +2441,40 @@
         <v>64</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+      <c r="I18" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H18)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v/>
+      </c>
+      <c r="J18" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H18)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K18" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H18)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v>Ensure the integrity of IoT systems and their data</v>
+      </c>
+      <c r="L18" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H18)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M18" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H18)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Ensure the integrity of IoT systems and their data</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>65</v>
       </c>
@@ -2014,14 +2494,40 @@
         <v>37</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+      <c r="I19" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H19)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J19" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H19)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v>Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="K19" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H19)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L19" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H19)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M19" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H19)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems;Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>68</v>
       </c>
@@ -2041,14 +2547,40 @@
         <v>64</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+      <c r="I20" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H20)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v/>
+      </c>
+      <c r="J20" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H20)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K20" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H20)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L20" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H20)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M20" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H20)))&gt;0, "Build trusted communication channels","")</f>
+        <v>Build trusted communication channels</v>
+      </c>
+      <c r="N20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Build trusted communication channels</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>71</v>
       </c>
@@ -2068,14 +2600,40 @@
         <v>74</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+      <c r="I21" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H21)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J21" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H21)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v>Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="K21" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H21)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L21" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H21)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M21" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H21)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems;Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>75</v>
       </c>
@@ -2095,14 +2653,40 @@
         <v>37</v>
       </c>
       <c r="G22" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="I22" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H22)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J22" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H22)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K22" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H22)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L22" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H22)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M22" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H22)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O22" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>78</v>
       </c>
@@ -2122,14 +2706,40 @@
         <v>64</v>
       </c>
       <c r="G23" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="I23" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H23)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J23" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H23)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K23" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H23)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L23" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H23)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M23" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H23)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O23" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>80</v>
       </c>
@@ -2149,14 +2759,40 @@
         <v>83</v>
       </c>
       <c r="G24" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="I24" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H24)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J24" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H24)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K24" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H24)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L24" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H24)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M24" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H24)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O24" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>84</v>
       </c>
@@ -2176,14 +2812,40 @@
         <v>74</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+      <c r="I25" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H25)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v/>
+      </c>
+      <c r="J25" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H25)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K25" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H25)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L25" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H25)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M25" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H25)))&gt;0, "Build trusted communication channels","")</f>
+        <v>Build trusted communication channels</v>
+      </c>
+      <c r="N25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Build trusted communication channels</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>87</v>
       </c>
@@ -2203,14 +2865,40 @@
         <v>90</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+      <c r="I26" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H26)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J26" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H26)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v>Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="K26" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H26)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L26" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H26)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M26" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H26)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems;Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>91</v>
       </c>
@@ -2230,14 +2918,40 @@
         <v>26</v>
       </c>
       <c r="G27" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I27" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H27)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J27" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H27)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K27" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H27)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L27" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H27)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M27" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H27)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O27" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>94</v>
       </c>
@@ -2254,17 +2968,43 @@
         <v>8</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+      <c r="I28" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H28)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J28" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H28)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K28" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H28)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L28" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H28)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M28" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H28)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>97</v>
       </c>
@@ -2284,14 +3024,40 @@
         <v>100</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+      <c r="I29" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H29)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v/>
+      </c>
+      <c r="J29" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H29)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K29" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H29)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L29" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H29)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M29" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H29)))&gt;0, "Build trusted communication channels","")</f>
+        <v>Build trusted communication channels</v>
+      </c>
+      <c r="N29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Build trusted communication channels</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>101</v>
       </c>
@@ -2311,14 +3077,40 @@
         <v>90</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+      <c r="I30" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H30)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J30" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H30)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v>Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="K30" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H30)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L30" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H30)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M30" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H30)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N30" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems;Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>104</v>
       </c>
@@ -2335,22 +3127,48 @@
         <v>8</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G31" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="I31" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H31)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J31" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H31)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K31" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H31)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L31" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H31)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M31" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H31)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N31" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O31" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="H31" s="5" t="s">
+    </row>
+    <row r="32" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" ht="112" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+      <c r="B32" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="C32" s="6">
         <v>2018</v>
@@ -2362,22 +3180,48 @@
         <v>12</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G32" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="I32" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H32)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J32" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H32)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K32" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H32)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L32" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H32)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M32" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H32)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N32" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O32" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="H32" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="C33" s="6">
         <v>2018</v>
@@ -2389,55 +3233,107 @@
         <v>12</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+      <c r="I33" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H33)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J33" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H33)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K33" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H33)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v>Ensure the integrity of IoT systems and their data</v>
+      </c>
+      <c r="L33" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H33)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M33" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H33)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N33" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems;Ensure the integrity of IoT systems and their data</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="C34" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="C34" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F34" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="I34" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H34)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J34" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H34)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K34" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H34)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L34" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H34)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M34" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H34)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N34" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G34" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="1:9" ht="160" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
+      <c r="B35" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="C35" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="C35" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>8</v>
@@ -2446,25 +3342,51 @@
         <v>52</v>
       </c>
       <c r="G35" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="I35" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H35)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J35" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H35)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K35" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H35)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L35" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H35)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M35" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H35)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N35" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O35" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="H35" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="C36" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="C36" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>8</v>
@@ -2473,25 +3395,51 @@
         <v>37</v>
       </c>
       <c r="G36" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="I36" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H36)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J36" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H36)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K36" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H36)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L36" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H36)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M36" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H36)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N36" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O36" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="H36" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="I36" s="6"/>
-    </row>
-    <row r="37" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="C37" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="C37" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>12</v>
@@ -2500,52 +3448,104 @@
         <v>37</v>
       </c>
       <c r="G37" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="I37" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H37)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J37" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H37)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K37" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H37)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L37" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H37)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M37" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H37)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N37" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O37" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="H37" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="C38" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="C38" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+      <c r="I38" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H38)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J38" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H38)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K38" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H38)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L38" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H38)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M38" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H38)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N38" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="C39" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="C39" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>8</v>
@@ -2554,52 +3554,104 @@
         <v>52</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+      <c r="I39" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H39)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J39" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H39)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K39" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H39)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L39" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H39)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M39" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H39)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N39" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="C40" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="C40" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G40" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="I40" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H40)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J40" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H40)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K40" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H40)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L40" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H40)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M40" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H40)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N40" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O40" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="H40" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="I40" s="6"/>
-    </row>
-    <row r="41" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="C41" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="C41" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>25</v>
@@ -2608,25 +3660,51 @@
         <v>52</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="I41" s="6"/>
-    </row>
-    <row r="42" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+      <c r="I41" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H41)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v/>
+      </c>
+      <c r="J41" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H41)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v>Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="K41" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H41)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L41" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H41)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M41" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H41)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N41" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="C42" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="C42" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>8</v>
@@ -2635,25 +3713,51 @@
         <v>52</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="I42" s="6"/>
-    </row>
-    <row r="43" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="I42" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H42)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J42" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H42)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K42" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H42)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L42" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H42)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M42" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H42)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N42" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="C43" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="C43" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>8</v>
@@ -2662,46 +3766,98 @@
         <v>90</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="I43" s="6"/>
-    </row>
-    <row r="44" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+      <c r="I43" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H43)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v/>
+      </c>
+      <c r="J43" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H43)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v>Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="K43" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H43)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L43" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H43)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M43" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H43)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N43" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="C44" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="C44" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="I44" s="6"/>
-    </row>
-    <row r="45" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="I44" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H44)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J44" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H44)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K44" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H44)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L44" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H44)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M44" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H44)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N44" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="C45" s="6">
         <v>2018</v>
@@ -2716,52 +3872,104 @@
         <v>13</v>
       </c>
       <c r="G45" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="I45" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H45)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J45" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H45)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K45" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H45)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L45" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H45)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M45" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H45)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N45" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O45" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="H45" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="I45" s="6"/>
-    </row>
-    <row r="46" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="C46" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="C46" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="I46" s="6"/>
-    </row>
-    <row r="47" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+      <c r="I46" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H46)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J46" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H46)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K46" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H46)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L46" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H46)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M46" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H46)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N46" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="C47" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="C47" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>8</v>
@@ -2770,52 +3978,104 @@
         <v>52</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="I47" s="6"/>
-    </row>
-    <row r="48" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+      <c r="I47" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H47)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v/>
+      </c>
+      <c r="J47" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H47)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v>Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="K47" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H47)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v>Ensure the integrity of IoT systems and their data</v>
+      </c>
+      <c r="L47" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H47)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M47" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H47)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N47" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Enable decentralised authentication, authorisation, and trust management;Ensure the integrity of IoT systems and their data</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="C48" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="C48" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F48" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="I48" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H48)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v/>
+      </c>
+      <c r="J48" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H48)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K48" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H48)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L48" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H48)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v>Control and incentivise the distribution of IoT data and services</v>
+      </c>
+      <c r="M48" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H48)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N48" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Control and incentivise the distribution of IoT data and services</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G48" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="I48" s="6"/>
-    </row>
-    <row r="49" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
+      <c r="B49" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="C49" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="C49" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>12</v>
@@ -2824,106 +4084,210 @@
         <v>48</v>
       </c>
       <c r="G49" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="I49" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H49)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J49" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H49)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K49" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H49)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L49" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H49)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M49" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H49)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N49" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O49" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="H49" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="I49" s="6"/>
-    </row>
-    <row r="50" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="C50" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="C50" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F50" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="I50" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H50)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J50" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H50)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K50" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H50)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L50" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H50)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M50" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H50)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N50" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G50" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="I50" s="6"/>
-    </row>
-    <row r="51" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
+      <c r="B51" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="C51" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="C51" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="I51" s="6"/>
-    </row>
-    <row r="52" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+      <c r="I51" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H51)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J51" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H51)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K51" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H51)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L51" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H51)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M51" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H51)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N51" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="C52" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="C52" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F52" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="I52" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H52)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v/>
+      </c>
+      <c r="J52" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H52)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v>Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="K52" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H52)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L52" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H52)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M52" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H52)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N52" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="O52" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G52" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="I52" s="6"/>
-    </row>
-    <row r="53" spans="1:9" ht="96" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
+      <c r="B53" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="C53" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="C53" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>8</v>
@@ -2932,52 +4296,104 @@
         <v>52</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="I53" s="6"/>
-    </row>
-    <row r="54" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+      <c r="I53" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H53)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v/>
+      </c>
+      <c r="J53" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H53)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K53" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H53)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L53" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H53)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M53" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H53)))&gt;0, "Build trusted communication channels","")</f>
+        <v>Build trusted communication channels</v>
+      </c>
+      <c r="N53" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Build trusted communication channels</v>
+      </c>
+      <c r="O53" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="C54" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="C54" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F54" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="I54" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H54)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v/>
+      </c>
+      <c r="J54" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H54)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v>Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="K54" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H54)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L54" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H54)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M54" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H54)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N54" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="O54" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="G54" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="I54" s="6"/>
-    </row>
-    <row r="55" spans="1:9" ht="144" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
+      <c r="B55" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>180</v>
-      </c>
       <c r="C55" s="6">
         <v>2018</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>8</v>
@@ -2986,19 +4402,45 @@
         <v>52</v>
       </c>
       <c r="G55" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="I55" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H55)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J55" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H55)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K55" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H55)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L55" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H55)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M55" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H55)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N55" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O55" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="H55" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="I55" s="6"/>
-    </row>
-    <row r="56" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="C56" s="6">
         <v>2018</v>
@@ -3010,49 +4452,101 @@
         <v>12</v>
       </c>
       <c r="F56" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="I56" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H56)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J56" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H56)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K56" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H56)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L56" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H56)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M56" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H56)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N56" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O56" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="G56" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="I56" s="6"/>
-    </row>
-    <row r="57" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
+      <c r="B57" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="C57" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="C57" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="I57" s="6"/>
-    </row>
-    <row r="58" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+      <c r="I57" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H57)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J57" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H57)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K57" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H57)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L57" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H57)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M57" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H57)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N57" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O57" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="C58" s="6">
         <v>2018</v>
@@ -3064,109 +4558,213 @@
         <v>8</v>
       </c>
       <c r="F58" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="I58" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H58)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J58" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H58)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v>Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="K58" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H58)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L58" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H58)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M58" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H58)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N58" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems;Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="O58" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G58" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="I58" s="6"/>
-    </row>
-    <row r="59" spans="1:9" ht="96" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
+      <c r="B59" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="C59" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D59" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="C59" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="I59" s="6"/>
-    </row>
-    <row r="60" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+      <c r="I59" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H59)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J59" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H59)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K59" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H59)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v>Ensure the integrity of IoT systems and their data</v>
+      </c>
+      <c r="L59" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H59)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M59" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H59)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N59" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems;Ensure the integrity of IoT systems and their data</v>
+      </c>
+      <c r="O59" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="C60" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="C60" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="I60" s="6"/>
-    </row>
-    <row r="61" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+      <c r="I60" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H60)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J60" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H60)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K60" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H60)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L60" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H60)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M60" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H60)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N60" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O60" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="C61" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="C61" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F61" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="H61" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="G61" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="I61" s="6"/>
-    </row>
-    <row r="62" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="I61" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H61)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J61" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H61)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K61" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H61)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L61" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H61)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M61" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H61)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N61" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O61" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>200</v>
-      </c>
       <c r="C62" s="6">
         <v>2018</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>12</v>
@@ -3175,19 +4773,45 @@
         <v>64</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="I62" s="6"/>
-    </row>
-    <row r="63" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+      <c r="I62" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H62)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J62" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H62)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v>Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="K62" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H62)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L62" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H62)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M62" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H62)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N62" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems;Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="O62" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="C63" s="6">
         <v>2018</v>
@@ -3199,47 +4823,101 @@
         <v>12</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+      <c r="I63" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H63)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J63" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H63)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K63" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H63)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L63" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H63)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M63" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H63)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N63" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O63" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>204</v>
-      </c>
       <c r="C64" s="6">
         <v>2018</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G64" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="I64" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H64)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J64" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H64)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K64" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H64)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L64" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H64)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M64" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H64)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N64" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O64" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="H64" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="C65" s="6">
         <v>2018</v>
@@ -3251,177 +4929,366 @@
         <v>12</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+      <c r="I65" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H65)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v/>
+      </c>
+      <c r="J65" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H65)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v>Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="K65" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H65)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v>Ensure the integrity of IoT systems and their data</v>
+      </c>
+      <c r="L65" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H65)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M65" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H65)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N65" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Enable decentralised authentication, authorisation, and trust management;Ensure the integrity of IoT systems and their data</v>
+      </c>
+      <c r="O65" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="C66" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="C66" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F66" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="I66" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H66)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v/>
+      </c>
+      <c r="J66" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H66)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K66" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H66)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v>Ensure the integrity of IoT systems and their data</v>
+      </c>
+      <c r="L66" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H66)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M66" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H66)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N66" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Ensure the integrity of IoT systems and their data</v>
+      </c>
+      <c r="O66" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+      <c r="A67" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G66" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="112" x14ac:dyDescent="0.2">
-      <c r="A67" s="7" t="s">
+      <c r="B67" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="C67" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="C67" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F67" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="I67" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H67)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J67" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H67)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v>Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="K67" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H67)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L67" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H67)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M67" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H67)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N67" s="5" t="str">
+        <f t="shared" ref="N67:N91" si="1">_xlfn.TEXTJOIN(";",TRUE,I67:M67)</f>
+        <v>Decentralise the operation of IoT systems;Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="O67" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A68" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G67" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A68" s="7" t="s">
+      <c r="B68" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="C68" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D68" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="C68" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+      <c r="I68" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H68)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J68" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H68)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K68" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H68)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L68" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H68)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M68" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H68)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N68" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O68" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="C69" s="6">
         <v>2018</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+      <c r="I69" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H69)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J69" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H69)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K69" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H69)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v>Ensure the integrity of IoT systems and their data</v>
+      </c>
+      <c r="L69" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H69)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M69" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H69)))&gt;0, "Build trusted communication channels","")</f>
+        <v>Build trusted communication channels</v>
+      </c>
+      <c r="N69" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Decentralise the operation of IoT systems;Ensure the integrity of IoT systems and their data;Build trusted communication channels</v>
+      </c>
+      <c r="O69" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="C70" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="C70" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+      <c r="I70" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H70)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J70" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H70)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K70" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H70)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L70" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H70)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M70" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H70)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N70" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O70" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="C71" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="C71" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F71" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="I71" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H71)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v/>
+      </c>
+      <c r="J71" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H71)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v>Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="K71" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H71)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v>Ensure the integrity of IoT systems and their data</v>
+      </c>
+      <c r="L71" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H71)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M71" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H71)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N71" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Enable decentralised authentication, authorisation, and trust management;Ensure the integrity of IoT systems and their data</v>
+      </c>
+      <c r="O71" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+      <c r="A72" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="G71" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A72" s="7" t="s">
+      <c r="B72" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="C72" s="6">
         <v>2018</v>
@@ -3433,79 +5300,160 @@
         <v>12</v>
       </c>
       <c r="F72" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="I72" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H72)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J72" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H72)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K72" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H72)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L72" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H72)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v>Control and incentivise the distribution of IoT data and services</v>
+      </c>
+      <c r="M72" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H72)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N72" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Decentralise the operation of IoT systems;Control and incentivise the distribution of IoT data and services</v>
+      </c>
+      <c r="O72" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+      <c r="A73" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="G72" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A73" s="7" t="s">
+      <c r="B73" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="C73" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="C73" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+      <c r="I73" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H73)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J73" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H73)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K73" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H73)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L73" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H73)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v>Control and incentivise the distribution of IoT data and services</v>
+      </c>
+      <c r="M73" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H73)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N73" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Decentralise the operation of IoT systems;Control and incentivise the distribution of IoT data and services</v>
+      </c>
+      <c r="O73" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B74" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="C74" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D74" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="C74" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+      <c r="I74" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H74)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J74" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H74)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K74" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H74)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L74" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H74)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v>Control and incentivise the distribution of IoT data and services</v>
+      </c>
+      <c r="M74" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H74)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N74" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Decentralise the operation of IoT systems;Control and incentivise the distribution of IoT data and services</v>
+      </c>
+      <c r="O74" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="C75" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="C75" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>8</v>
@@ -3514,24 +5462,51 @@
         <v>52</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+      <c r="I75" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H75)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v/>
+      </c>
+      <c r="J75" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H75)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v>Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="K75" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H75)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L75" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H75)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M75" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H75)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N75" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="O75" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="C76" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="C76" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>8</v>
@@ -3540,18 +5515,45 @@
         <v>52</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+      <c r="I76" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H76)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v/>
+      </c>
+      <c r="J76" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H76)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v>Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="K76" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H76)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L76" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H76)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M76" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H76)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N76" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="O76" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="C77" s="6">
         <v>2018</v>
@@ -3563,47 +5565,101 @@
         <v>8</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G77" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="I77" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H77)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J77" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H77)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K77" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H77)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L77" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H77)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M77" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H77)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N77" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O77" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="H77" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B78" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="C78" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D78" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="C78" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F78" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="I78" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H78)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J78" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H78)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K78" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H78)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L78" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H78)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M78" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H78)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N78" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O78" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+      <c r="A79" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="G78" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="64" x14ac:dyDescent="0.2">
-      <c r="A79" s="7" t="s">
+      <c r="B79" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="C79" s="6">
         <v>2018</v>
@@ -3615,21 +5671,48 @@
         <v>12</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+      <c r="I79" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H79)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v/>
+      </c>
+      <c r="J79" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H79)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v>Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="K79" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H79)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v>Ensure the integrity of IoT systems and their data</v>
+      </c>
+      <c r="L79" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H79)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M79" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H79)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N79" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Enable decentralised authentication, authorisation, and trust management;Ensure the integrity of IoT systems and their data</v>
+      </c>
+      <c r="O79" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B80" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="C80" s="6">
         <v>2018</v>
@@ -3641,27 +5724,54 @@
         <v>12</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+      <c r="I80" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H80)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J80" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H80)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K80" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H80)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L80" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H80)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M80" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H80)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N80" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="O80" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B81" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="C81" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D81" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="C81" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>8</v>
@@ -3670,24 +5780,51 @@
         <v>52</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+      <c r="I81" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H81)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v/>
+      </c>
+      <c r="J81" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H81)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K81" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H81)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v>Ensure the integrity of IoT systems and their data</v>
+      </c>
+      <c r="L81" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H81)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M81" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H81)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N81" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Ensure the integrity of IoT systems and their data</v>
+      </c>
+      <c r="O81" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B82" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="C82" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D82" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="C82" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>8</v>
@@ -3696,24 +5833,51 @@
         <v>37</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+      <c r="I82" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H82)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J82" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H82)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v>Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="K82" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H82)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v>Ensure the integrity of IoT systems and their data</v>
+      </c>
+      <c r="L82" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H82)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M82" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H82)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N82" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Decentralise the operation of IoT systems;Enable decentralised authentication, authorisation, and trust management;Ensure the integrity of IoT systems and their data</v>
+      </c>
+      <c r="O82" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B83" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B83" s="7" t="s">
-        <v>259</v>
-      </c>
       <c r="C83" s="6">
         <v>2018</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>12</v>
@@ -3722,50 +5886,104 @@
         <v>52</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+      <c r="I83" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H83)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J83" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H83)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K83" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H83)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v>Ensure the integrity of IoT systems and their data</v>
+      </c>
+      <c r="L83" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H83)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M83" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H83)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N83" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Decentralise the operation of IoT systems;Ensure the integrity of IoT systems and their data</v>
+      </c>
+      <c r="O83" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B84" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="C84" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D84" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="C84" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D84" s="7" t="s">
+      <c r="E84" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+      <c r="I84" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H84)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v/>
+      </c>
+      <c r="J84" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H84)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K84" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H84)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L84" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H84)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v>Control and incentivise the distribution of IoT data and services</v>
+      </c>
+      <c r="M84" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H84)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N84" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Control and incentivise the distribution of IoT data and services</v>
+      </c>
+      <c r="O84" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B85" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="C85" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D85" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="C85" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>12</v>
@@ -3774,18 +5992,45 @@
         <v>100</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+      <c r="I85" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H85)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v/>
+      </c>
+      <c r="J85" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H85)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K85" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H85)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L85" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H85)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M85" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H85)))&gt;0, "Build trusted communication channels","")</f>
+        <v>Build trusted communication channels</v>
+      </c>
+      <c r="N85" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Build trusted communication channels</v>
+      </c>
+      <c r="O85" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B86" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="C86" s="6">
         <v>2018</v>
@@ -3800,24 +6045,51 @@
         <v>52</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+      <c r="I86" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H86)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v/>
+      </c>
+      <c r="J86" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H86)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v>Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="K86" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H86)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L86" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H86)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M86" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H86)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N86" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="O86" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B87" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="C87" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D87" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="C87" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>8</v>
@@ -3826,44 +6098,98 @@
         <v>52</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+      <c r="I87" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H87)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v/>
+      </c>
+      <c r="J87" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H87)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v>Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="K87" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H87)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L87" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H87)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M87" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H87)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N87" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="O87" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B88" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="C88" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="C88" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+      <c r="I88" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H88)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J88" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H88)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K88" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H88)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v>Ensure the integrity of IoT systems and their data</v>
+      </c>
+      <c r="L88" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H88)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v>Control and incentivise the distribution of IoT data and services</v>
+      </c>
+      <c r="M88" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H88)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N88" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Decentralise the operation of IoT systems;Ensure the integrity of IoT systems and their data;Control and incentivise the distribution of IoT data and services</v>
+      </c>
+      <c r="O88" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B89" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="C89" s="6">
         <v>2018</v>
@@ -3878,18 +6204,45 @@
         <v>13</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+      <c r="I89" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H89)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v/>
+      </c>
+      <c r="J89" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H89)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v>Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="K89" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H89)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L89" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H89)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M89" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H89)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N89" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="O89" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B90" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="C90" s="6">
         <v>2018</v>
@@ -3901,27 +6254,54 @@
         <v>12</v>
       </c>
       <c r="F90" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="I90" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H90)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J90" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H90)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v/>
+      </c>
+      <c r="K90" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H90)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v>Ensure the integrity of IoT systems and their data</v>
+      </c>
+      <c r="L90" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H90)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M90" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H90)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N90" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Decentralise the operation of IoT systems;Ensure the integrity of IoT systems and their data</v>
+      </c>
+      <c r="O90" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+      <c r="A91" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="G90" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="H90" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="144" x14ac:dyDescent="0.2">
-      <c r="A91" s="7" t="s">
+      <c r="B91" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="C91" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D91" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="C91" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>8</v>
@@ -3930,10 +6310,37 @@
         <v>33</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
+      </c>
+      <c r="I91" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Remove Trusted Third Party","Control and record processes involving IoT devices"},$H91)))&gt;0, "Decentralise the operation of IoT systems","")</f>
+        <v>Decentralise the operation of IoT systems</v>
+      </c>
+      <c r="J91" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Enable decentralised authentication of IoT devices","Enable decentralised authorisation to and from IoT system","Enable decentralised authorisation to IoT data","Enable decentralised trust assessment of IoT devices and services"},$H91)))&gt;0, "Enable decentralised authentication, authorisation, and trust management","")</f>
+        <v>Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="K91" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Prevent tampering and provide provenance to at-rest IoT data","Prevent tampering of in-motion IoT data","Prevent tampering of IoT devices"},$H91)))&gt;0, "Ensure the integrity of IoT systems and their data","")</f>
+        <v/>
+      </c>
+      <c r="L91" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Control the placement of IoT data and services","Decentralise the distribution of software and firmware updates","Incentivise data and firmware sharing"},$H91)))&gt;0, "Control and incentivise the distribution of IoT data and services","")</f>
+        <v/>
+      </c>
+      <c r="M91" s="5" t="str">
+        <f>IF(SUMPRODUCT(--ISNUMBER(SEARCH({"Build a trusted environment for inter-silo communication","Build a trusted environment for device-to-backend communication","Create cross-platform decentralised Identity and Access Management Systems"},$H91)))&gt;0, "Build trusted communication channels","")</f>
+        <v/>
+      </c>
+      <c r="N91" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Decentralise the operation of IoT systems;Enable decentralised authentication, authorisation, and trust management</v>
+      </c>
+      <c r="O91" s="5" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
